--- a/biology/Zoologie/Aethes_hartmanniana/Aethes_hartmanniana.xlsx
+++ b/biology/Zoologie/Aethes_hartmanniana/Aethes_hartmanniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aethes hartmanniana est une espèce de lépidoptères (papillons) de la famille des Tortricidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aethes hartmanniana a les ailes de couleur jaune sable. Elle présente trois taches brun roux sur le bord costal, une tache brune près du tornus et une bande médiane partant vers l'arrière et s'élargissant à l'apex. Les marques brunes sont bordées d’écailles blanches à grises, disposées en alignement de taches rondes souvent épaisses, les taches rondes sont plus séparées vers l'apex. Elle est très semblable à Aethes piercei (en)[4].
-L'envergure est de 15 à 23 millimètres[4].
-La chenille est de couleur jaune, avec la tête brun clair et la laque prothoracique brun jaunâtre[5].
-L'espèce hiverne. La période de chenille est d'avril à mai, la période d'imago de juin à août[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aethes hartmanniana a les ailes de couleur jaune sable. Elle présente trois taches brun roux sur le bord costal, une tache brune près du tornus et une bande médiane partant vers l'arrière et s'élargissant à l'apex. Les marques brunes sont bordées d’écailles blanches à grises, disposées en alignement de taches rondes souvent épaisses, les taches rondes sont plus séparées vers l'apex. Elle est très semblable à Aethes piercei (en).
+L'envergure est de 15 à 23 millimètres.
+La chenille est de couleur jaune, avec la tête brun clair et la laque prothoracique brun jaunâtre.
+L'espèce hiverne. La période de chenille est d'avril à mai, la période d'imago de juin à août.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Aethes hartmanniana dans la plupart des pays de l'Europe, en Asie Mineure, en Arménie et dans le Sud de l'Oural[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Aethes hartmanniana dans la plupart des pays de l'Europe, en Asie Mineure, en Arménie et dans le Sud de l'Oural.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est les prairies et terrains calcaires[4].
-La chenille se nourrit des racines de Knautia arvensis, Scabiosa columbaria, Scabiosa ochroleuca et Succisa pratensis[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est les prairies et terrains calcaires.
+La chenille se nourrit des racines de Knautia arvensis, Scabiosa columbaria, Scabiosa ochroleuca et Succisa pratensis.
 </t>
         </is>
       </c>
